--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="36">
   <si>
     <t>Doi</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,  Diego%Menezes%NULL%1,  Filipe Romero Rebello%Moreira%NULL%1,  Octávio Alcântara%Torres%NULL%1,  Paula Luize Camargos%Fonseca%NULL%1,  Rennan Garcias%Moreira%NULL%1,  Hugo José%Alves%NULL%1,  Vivian Ribeiro%Alves%NULL%1,  Tânia Maria de Resende%Amaral%NULL%1,  Adriano Neves%Coelho%NULL%1,  Júlia Maria%Saraiva Duarte%NULL%1,  Augusto Viana%da Rocha%NULL%1,  Luiz Gonzaga Paula%de Almeida%NULL%1,  João Locke Ferreira%de Araújo%NULL%1,  Hilton Soares%de Oliveira%NULL%1,  Nova Jersey Cláudio%de Oliveira%NULL%1,  Camila%Zolini%NULL%1,  Jôsy Hubner%de Sousa%NULL%1,  Elizângela Gonçalves%de Souza%NULL%1,  Rafael Marques%de Souza%NULL%1,  Luciana de Lima%Ferreira%NULL%1,  Alexandra%Lehmkuhl Gerber%NULL%1,  Ana Paula de Campos%Guimarães%NULL%1,  Paulo Henrique Silva%Maia%NULL%1,  Fernanda Martins%Marim%NULL%1,  Lucyene%Miguita%NULL%1,  Cristiane Campos%Monteiro%NULL%1,  Tuffi Saliba%Neto%NULL%1,  Fabrícia Soares Freire%Pugêdo%NULL%1,  Daniel Costa%Queiroz%NULL%1,  Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,  Luciana Cunha%Resende-Moreira%NULL%1,  Franciele Martins%Santos%NULL%1,  Erika Fernanda Carlos%Souza%NULL%1,  Carolina Moreira%Voloch%NULL%1,  Ana Tereza%Vasconcelos%NULL%1,  Renato Santana%de Aguiar%NULL%1,  Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,   Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,   Sirwan M. A.%Al‐Jaf%NULL%2,   Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,   Diego%Menezes%NULL%1,   Filipe Romero Rebello%Moreira%NULL%1,   Octávio Alcântara%Torres%NULL%1,   Paula Luize Camargos%Fonseca%NULL%1,   Rennan Garcias%Moreira%NULL%1,   Hugo José%Alves%NULL%1,   Vivian Ribeiro%Alves%NULL%1,   Tânia Maria de Resende%Amaral%NULL%1,   Adriano Neves%Coelho%NULL%1,   Júlia Maria%Saraiva Duarte%NULL%1,   Augusto Viana%da Rocha%NULL%1,   Luiz Gonzaga Paula%de Almeida%NULL%1,   João Locke Ferreira%de Araújo%NULL%1,   Hilton Soares%de Oliveira%NULL%1,   Nova Jersey Cláudio%de Oliveira%NULL%1,   Camila%Zolini%NULL%1,   Jôsy Hubner%de Sousa%NULL%1,   Elizângela Gonçalves%de Souza%NULL%1,   Rafael Marques%de Souza%NULL%1,   Luciana de Lima%Ferreira%NULL%1,   Alexandra%Lehmkuhl Gerber%NULL%1,   Ana Paula de Campos%Guimarães%NULL%1,   Paulo Henrique Silva%Maia%NULL%1,   Fernanda Martins%Marim%NULL%1,   Lucyene%Miguita%NULL%1,   Cristiane Campos%Monteiro%NULL%1,   Tuffi Saliba%Neto%NULL%1,   Fabrícia Soares Freire%Pugêdo%NULL%1,   Daniel Costa%Queiroz%NULL%1,   Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,   Luciana Cunha%Resende-Moreira%NULL%1,   Franciele Martins%Santos%NULL%1,   Erika Fernanda Carlos%Souza%NULL%1,   Carolina Moreira%Voloch%NULL%1,   Ana Tereza%Vasconcelos%NULL%1,   Renato Santana%de Aguiar%NULL%1,   Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -436,6 +451,9 @@
       <c r="H1" t="s">
         <v>15</v>
       </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -454,13 +472,16 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +498,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -487,6 +508,9 @@
       </c>
       <c r="H3" t="s">
         <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +527,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -513,6 +537,9 @@
       </c>
       <c r="H4" t="s">
         <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="42">
   <si>
     <t>Doi</t>
   </si>
@@ -141,6 +141,24 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,   Diego%Menezes%NULL%1,   Filipe Romero Rebello%Moreira%NULL%1,   Octávio Alcântara%Torres%NULL%1,   Paula Luize Camargos%Fonseca%NULL%1,   Rennan Garcias%Moreira%NULL%1,   Hugo José%Alves%NULL%1,   Vivian Ribeiro%Alves%NULL%1,   Tânia Maria de Resende%Amaral%NULL%1,   Adriano Neves%Coelho%NULL%1,   Júlia Maria%Saraiva Duarte%NULL%1,   Augusto Viana%da Rocha%NULL%1,   Luiz Gonzaga Paula%de Almeida%NULL%1,   João Locke Ferreira%de Araújo%NULL%1,   Hilton Soares%de Oliveira%NULL%1,   Nova Jersey Cláudio%de Oliveira%NULL%1,   Camila%Zolini%NULL%1,   Jôsy Hubner%de Sousa%NULL%1,   Elizângela Gonçalves%de Souza%NULL%1,   Rafael Marques%de Souza%NULL%1,   Luciana de Lima%Ferreira%NULL%1,   Alexandra%Lehmkuhl Gerber%NULL%1,   Ana Paula de Campos%Guimarães%NULL%1,   Paulo Henrique Silva%Maia%NULL%1,   Fernanda Martins%Marim%NULL%1,   Lucyene%Miguita%NULL%1,   Cristiane Campos%Monteiro%NULL%1,   Tuffi Saliba%Neto%NULL%1,   Fabrícia Soares Freire%Pugêdo%NULL%1,   Daniel Costa%Queiroz%NULL%1,   Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,   Luciana Cunha%Resende-Moreira%NULL%1,   Franciele Martins%Santos%NULL%1,   Erika Fernanda Carlos%Souza%NULL%1,   Carolina Moreira%Voloch%NULL%1,   Ana Tereza%Vasconcelos%NULL%1,   Renato Santana%de Aguiar%NULL%1,   Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,    Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,    Sirwan M. A.%Al‐Jaf%NULL%2,    Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,    Diego%Menezes%NULL%1,    Filipe Romero Rebello%Moreira%NULL%1,    Octávio Alcântara%Torres%NULL%1,    Paula Luize Camargos%Fonseca%NULL%1,    Rennan Garcias%Moreira%NULL%1,    Hugo José%Alves%NULL%1,    Vivian Ribeiro%Alves%NULL%1,    Tânia Maria de Resende%Amaral%NULL%1,    Adriano Neves%Coelho%NULL%1,    Júlia Maria%Saraiva Duarte%NULL%1,    Augusto Viana%da Rocha%NULL%1,    Luiz Gonzaga Paula%de Almeida%NULL%1,    João Locke Ferreira%de Araújo%NULL%1,    Hilton Soares%de Oliveira%NULL%1,    Nova Jersey Cláudio%de Oliveira%NULL%1,    Camila%Zolini%NULL%1,    Jôsy Hubner%de Sousa%NULL%1,    Elizângela Gonçalves%de Souza%NULL%1,    Rafael Marques%de Souza%NULL%1,    Luciana de Lima%Ferreira%NULL%1,    Alexandra%Lehmkuhl Gerber%NULL%1,    Ana Paula de Campos%Guimarães%NULL%1,    Paulo Henrique Silva%Maia%NULL%1,    Fernanda Martins%Marim%NULL%1,    Lucyene%Miguita%NULL%1,    Cristiane Campos%Monteiro%NULL%1,    Tuffi Saliba%Neto%NULL%1,    Fabrícia Soares Freire%Pugêdo%NULL%1,    Daniel Costa%Queiroz%NULL%1,    Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,    Luciana Cunha%Resende-Moreira%NULL%1,    Franciele Martins%Santos%NULL%1,    Erika Fernanda Carlos%Souza%NULL%1,    Carolina Moreira%Voloch%NULL%1,    Ana Tereza%Vasconcelos%NULL%1,    Renato Santana%de Aguiar%NULL%1,    Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,     Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,     Sirwan M. A.%Al‐Jaf%NULL%2,     Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,     Diego%Menezes%NULL%1,     Filipe Romero Rebello%Moreira%NULL%1,     Octávio Alcântara%Torres%NULL%1,     Paula Luize Camargos%Fonseca%NULL%1,     Rennan Garcias%Moreira%NULL%1,     Hugo José%Alves%NULL%1,     Vivian Ribeiro%Alves%NULL%1,     Tânia Maria de Resende%Amaral%NULL%1,     Adriano Neves%Coelho%NULL%1,     Júlia Maria%Saraiva Duarte%NULL%1,     Augusto Viana%da Rocha%NULL%1,     Luiz Gonzaga Paula%de Almeida%NULL%1,     João Locke Ferreira%de Araújo%NULL%1,     Hilton Soares%de Oliveira%NULL%1,     Nova Jersey Cláudio%de Oliveira%NULL%1,     Camila%Zolini%NULL%1,     Jôsy Hubner%de Sousa%NULL%1,     Elizângela Gonçalves%de Souza%NULL%1,     Rafael Marques%de Souza%NULL%1,     Luciana de Lima%Ferreira%NULL%1,     Alexandra%Lehmkuhl Gerber%NULL%1,     Ana Paula de Campos%Guimarães%NULL%1,     Paulo Henrique Silva%Maia%NULL%1,     Fernanda Martins%Marim%NULL%1,     Lucyene%Miguita%NULL%1,     Cristiane Campos%Monteiro%NULL%1,     Tuffi Saliba%Neto%NULL%1,     Fabrícia Soares Freire%Pugêdo%NULL%1,     Daniel Costa%Queiroz%NULL%1,     Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,     Luciana Cunha%Resende-Moreira%NULL%1,     Franciele Martins%Santos%NULL%1,     Erika Fernanda Carlos%Souza%NULL%1,     Carolina Moreira%Voloch%NULL%1,     Ana Tereza%Vasconcelos%NULL%1,     Renato Santana%de Aguiar%NULL%1,     Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,      Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,      Sirwan M. A.%Al‐Jaf%NULL%2,      Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,      Diego%Menezes%NULL%1,      Filipe Romero Rebello%Moreira%NULL%1,      Octávio Alcântara%Torres%NULL%1,      Paula Luize Camargos%Fonseca%NULL%1,      Rennan Garcias%Moreira%NULL%1,      Hugo José%Alves%NULL%1,      Vivian Ribeiro%Alves%NULL%1,      Tânia Maria de Resende%Amaral%NULL%1,      Adriano Neves%Coelho%NULL%1,      Júlia Maria%Saraiva Duarte%NULL%1,      Augusto Viana%da Rocha%NULL%1,      Luiz Gonzaga Paula%de Almeida%NULL%1,      João Locke Ferreira%de Araújo%NULL%1,      Hilton Soares%de Oliveira%NULL%1,      Nova Jersey Cláudio%de Oliveira%NULL%1,      Camila%Zolini%NULL%1,      Jôsy Hubner%de Sousa%NULL%1,      Elizângela Gonçalves%de Souza%NULL%1,      Rafael Marques%de Souza%NULL%1,      Luciana de Lima%Ferreira%NULL%1,      Alexandra%Lehmkuhl Gerber%NULL%1,      Ana Paula de Campos%Guimarães%NULL%1,      Paulo Henrique Silva%Maia%NULL%1,      Fernanda Martins%Marim%NULL%1,      Lucyene%Miguita%NULL%1,      Cristiane Campos%Monteiro%NULL%1,      Tuffi Saliba%Neto%NULL%1,      Fabrícia Soares Freire%Pugêdo%NULL%1,      Daniel Costa%Queiroz%NULL%1,      Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,      Luciana Cunha%Resende-Moreira%NULL%1,      Franciele Martins%Santos%NULL%1,      Erika Fernanda Carlos%Souza%NULL%1,      Carolina Moreira%Voloch%NULL%1,      Ana Tereza%Vasconcelos%NULL%1,      Renato Santana%de Aguiar%NULL%1,      Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -498,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -527,7 +545,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="51">
   <si>
     <t>Doi</t>
   </si>
@@ -159,6 +159,33 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,      Diego%Menezes%NULL%1,      Filipe Romero Rebello%Moreira%NULL%1,      Octávio Alcântara%Torres%NULL%1,      Paula Luize Camargos%Fonseca%NULL%1,      Rennan Garcias%Moreira%NULL%1,      Hugo José%Alves%NULL%1,      Vivian Ribeiro%Alves%NULL%1,      Tânia Maria de Resende%Amaral%NULL%1,      Adriano Neves%Coelho%NULL%1,      Júlia Maria%Saraiva Duarte%NULL%1,      Augusto Viana%da Rocha%NULL%1,      Luiz Gonzaga Paula%de Almeida%NULL%1,      João Locke Ferreira%de Araújo%NULL%1,      Hilton Soares%de Oliveira%NULL%1,      Nova Jersey Cláudio%de Oliveira%NULL%1,      Camila%Zolini%NULL%1,      Jôsy Hubner%de Sousa%NULL%1,      Elizângela Gonçalves%de Souza%NULL%1,      Rafael Marques%de Souza%NULL%1,      Luciana de Lima%Ferreira%NULL%1,      Alexandra%Lehmkuhl Gerber%NULL%1,      Ana Paula de Campos%Guimarães%NULL%1,      Paulo Henrique Silva%Maia%NULL%1,      Fernanda Martins%Marim%NULL%1,      Lucyene%Miguita%NULL%1,      Cristiane Campos%Monteiro%NULL%1,      Tuffi Saliba%Neto%NULL%1,      Fabrícia Soares Freire%Pugêdo%NULL%1,      Daniel Costa%Queiroz%NULL%1,      Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,      Luciana Cunha%Resende-Moreira%NULL%1,      Franciele Martins%Santos%NULL%1,      Erika Fernanda Carlos%Souza%NULL%1,      Carolina Moreira%Voloch%NULL%1,      Ana Tereza%Vasconcelos%NULL%1,      Renato Santana%de Aguiar%NULL%1,      Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Association of\n            &lt;scp&gt;HLA&lt;\/scp&gt;\n            gene polymorphism with susceptibility, severity, and mortality of\n            &lt;scp&gt;COVID&lt;\/scp&gt;\n            \u201019: A systematic review"</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1, Kaniz\u2010e\u2010%Zannat%xref no email%1, Shiny%Talukder%xref no email%1, Amirul Huda%Bhuiyan%xref no email%1, Md. Shariful Alam%Jilani%xref no email%1, K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-18</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,       Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,       Sirwan M. A.%Al‐Jaf%NULL%2,       Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,       Diego%Menezes%NULL%1,       Filipe Romero Rebello%Moreira%NULL%1,       Octávio Alcântara%Torres%NULL%1,       Paula Luize Camargos%Fonseca%NULL%1,       Rennan Garcias%Moreira%NULL%1,       Hugo José%Alves%NULL%1,       Vivian Ribeiro%Alves%NULL%1,       Tânia Maria de Resende%Amaral%NULL%1,       Adriano Neves%Coelho%NULL%1,       Júlia Maria%Saraiva Duarte%NULL%1,       Augusto Viana%da Rocha%NULL%1,       Luiz Gonzaga Paula%de Almeida%NULL%1,       João Locke Ferreira%de Araújo%NULL%1,       Hilton Soares%de Oliveira%NULL%1,       Nova Jersey Cláudio%de Oliveira%NULL%1,       Camila%Zolini%NULL%1,       Jôsy Hubner%de Sousa%NULL%1,       Elizângela Gonçalves%de Souza%NULL%1,       Rafael Marques%de Souza%NULL%1,       Luciana de Lima%Ferreira%NULL%1,       Alexandra%Lehmkuhl Gerber%NULL%1,       Ana Paula de Campos%Guimarães%NULL%1,       Paulo Henrique Silva%Maia%NULL%1,       Fernanda Martins%Marim%NULL%1,       Lucyene%Miguita%NULL%1,       Cristiane Campos%Monteiro%NULL%1,       Tuffi Saliba%Neto%NULL%1,       Fabrícia Soares Freire%Pugêdo%NULL%1,       Daniel Costa%Queiroz%NULL%1,       Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,       Luciana Cunha%Resende-Moreira%NULL%1,       Franciele Martins%Santos%NULL%1,       Erika Fernanda Carlos%Souza%NULL%1,       Carolina Moreira%Voloch%NULL%1,       Ana Tereza%Vasconcelos%NULL%1,       Renato Santana%de Aguiar%NULL%1,       Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,  Kaniz\u2010e\u2010%Zannat%xref no email%1,  Shiny%Talukder%xref no email%1,  Amirul Huda%Bhuiyan%xref no email%1,  Md. Shariful Alam%Jilani%xref no email%1,  K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,        Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,        Sirwan M. A.%Al‐Jaf%NULL%2,        Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,        Diego%Menezes%NULL%1,        Filipe Romero Rebello%Moreira%NULL%1,        Octávio Alcântara%Torres%NULL%1,        Paula Luize Camargos%Fonseca%NULL%1,        Rennan Garcias%Moreira%NULL%1,        Hugo José%Alves%NULL%1,        Vivian Ribeiro%Alves%NULL%1,        Tânia Maria de Resende%Amaral%NULL%1,        Adriano Neves%Coelho%NULL%1,        Júlia Maria%Saraiva Duarte%NULL%1,        Augusto Viana%da Rocha%NULL%1,        Luiz Gonzaga Paula%de Almeida%NULL%1,        João Locke Ferreira%de Araújo%NULL%1,        Hilton Soares%de Oliveira%NULL%1,        Nova Jersey Cláudio%de Oliveira%NULL%1,        Camila%Zolini%NULL%1,        Jôsy Hubner%de Sousa%NULL%1,        Elizângela Gonçalves%de Souza%NULL%1,        Rafael Marques%de Souza%NULL%1,        Luciana de Lima%Ferreira%NULL%1,        Alexandra%Lehmkuhl Gerber%NULL%1,        Ana Paula de Campos%Guimarães%NULL%1,        Paulo Henrique Silva%Maia%NULL%1,        Fernanda Martins%Marim%NULL%1,        Lucyene%Miguita%NULL%1,        Cristiane Campos%Monteiro%NULL%1,        Tuffi Saliba%Neto%NULL%1,        Fabrícia Soares Freire%Pugêdo%NULL%1,        Daniel Costa%Queiroz%NULL%1,        Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,        Luciana Cunha%Resende-Moreira%NULL%1,        Franciele Martins%Santos%NULL%1,        Erika Fernanda Carlos%Souza%NULL%1,        Carolina Moreira%Voloch%NULL%1,        Ana Tereza%Vasconcelos%NULL%1,        Renato Santana%de Aguiar%NULL%1,        Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -481,22 +508,22 @@
         <v>44584.0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
@@ -516,7 +543,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -545,7 +572,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="57">
   <si>
     <t>Doi</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,        Diego%Menezes%NULL%1,        Filipe Romero Rebello%Moreira%NULL%1,        Octávio Alcântara%Torres%NULL%1,        Paula Luize Camargos%Fonseca%NULL%1,        Rennan Garcias%Moreira%NULL%1,        Hugo José%Alves%NULL%1,        Vivian Ribeiro%Alves%NULL%1,        Tânia Maria de Resende%Amaral%NULL%1,        Adriano Neves%Coelho%NULL%1,        Júlia Maria%Saraiva Duarte%NULL%1,        Augusto Viana%da Rocha%NULL%1,        Luiz Gonzaga Paula%de Almeida%NULL%1,        João Locke Ferreira%de Araújo%NULL%1,        Hilton Soares%de Oliveira%NULL%1,        Nova Jersey Cláudio%de Oliveira%NULL%1,        Camila%Zolini%NULL%1,        Jôsy Hubner%de Sousa%NULL%1,        Elizângela Gonçalves%de Souza%NULL%1,        Rafael Marques%de Souza%NULL%1,        Luciana de Lima%Ferreira%NULL%1,        Alexandra%Lehmkuhl Gerber%NULL%1,        Ana Paula de Campos%Guimarães%NULL%1,        Paulo Henrique Silva%Maia%NULL%1,        Fernanda Martins%Marim%NULL%1,        Lucyene%Miguita%NULL%1,        Cristiane Campos%Monteiro%NULL%1,        Tuffi Saliba%Neto%NULL%1,        Fabrícia Soares Freire%Pugêdo%NULL%1,        Daniel Costa%Queiroz%NULL%1,        Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,        Luciana Cunha%Resende-Moreira%NULL%1,        Franciele Martins%Santos%NULL%1,        Erika Fernanda Carlos%Souza%NULL%1,        Carolina Moreira%Voloch%NULL%1,        Ana Tereza%Vasconcelos%NULL%1,        Renato Santana%de Aguiar%NULL%1,        Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,   Kaniz\u2010e\u2010%Zannat%xref no email%1,   Shiny%Talukder%xref no email%1,   Amirul Huda%Bhuiyan%xref no email%1,   Md. Shariful Alam%Jilani%xref no email%1,   K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,         Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,         Sirwan M. A.%Al‐Jaf%NULL%2,         Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,         Diego%Menezes%NULL%1,         Filipe Romero Rebello%Moreira%NULL%1,         Octávio Alcântara%Torres%NULL%1,         Paula Luize Camargos%Fonseca%NULL%1,         Rennan Garcias%Moreira%NULL%1,         Hugo José%Alves%NULL%1,         Vivian Ribeiro%Alves%NULL%1,         Tânia Maria de Resende%Amaral%NULL%1,         Adriano Neves%Coelho%NULL%1,         Júlia Maria%Saraiva Duarte%NULL%1,         Augusto Viana%da Rocha%NULL%1,         Luiz Gonzaga Paula%de Almeida%NULL%1,         João Locke Ferreira%de Araújo%NULL%1,         Hilton Soares%de Oliveira%NULL%1,         Nova Jersey Cláudio%de Oliveira%NULL%1,         Camila%Zolini%NULL%1,         Jôsy Hubner%de Sousa%NULL%1,         Elizângela Gonçalves%de Souza%NULL%1,         Rafael Marques%de Souza%NULL%1,         Luciana de Lima%Ferreira%NULL%1,         Alexandra%Lehmkuhl Gerber%NULL%1,         Ana Paula de Campos%Guimarães%NULL%1,         Paulo Henrique Silva%Maia%NULL%1,         Fernanda Martins%Marim%NULL%1,         Lucyene%Miguita%NULL%1,         Cristiane Campos%Monteiro%NULL%1,         Tuffi Saliba%Neto%NULL%1,         Fabrícia Soares Freire%Pugêdo%NULL%1,         Daniel Costa%Queiroz%NULL%1,         Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,         Luciana Cunha%Resende-Moreira%NULL%1,         Franciele Martins%Santos%NULL%1,         Erika Fernanda Carlos%Souza%NULL%1,         Carolina Moreira%Voloch%NULL%1,         Ana Tereza%Vasconcelos%NULL%1,         Renato Santana%de Aguiar%NULL%1,         Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,    Kaniz\u2010e\u2010%Zannat%xref no email%1,    Shiny%Talukder%xref no email%1,    Amirul Huda%Bhuiyan%xref no email%1,    Md. Shariful Alam%Jilani%xref no email%1,    K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,          Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,          Sirwan M. A.%Al‐Jaf%NULL%2,          Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,          Diego%Menezes%NULL%1,          Filipe Romero Rebello%Moreira%NULL%1,          Octávio Alcântara%Torres%NULL%1,          Paula Luize Camargos%Fonseca%NULL%1,          Rennan Garcias%Moreira%NULL%1,          Hugo José%Alves%NULL%1,          Vivian Ribeiro%Alves%NULL%1,          Tânia Maria de Resende%Amaral%NULL%1,          Adriano Neves%Coelho%NULL%1,          Júlia Maria%Saraiva Duarte%NULL%1,          Augusto Viana%da Rocha%NULL%1,          Luiz Gonzaga Paula%de Almeida%NULL%1,          João Locke Ferreira%de Araújo%NULL%1,          Hilton Soares%de Oliveira%NULL%1,          Nova Jersey Cláudio%de Oliveira%NULL%1,          Camila%Zolini%NULL%1,          Jôsy Hubner%de Sousa%NULL%1,          Elizângela Gonçalves%de Souza%NULL%1,          Rafael Marques%de Souza%NULL%1,          Luciana de Lima%Ferreira%NULL%1,          Alexandra%Lehmkuhl Gerber%NULL%1,          Ana Paula de Campos%Guimarães%NULL%1,          Paulo Henrique Silva%Maia%NULL%1,          Fernanda Martins%Marim%NULL%1,          Lucyene%Miguita%NULL%1,          Cristiane Campos%Monteiro%NULL%1,          Tuffi Saliba%Neto%NULL%1,          Fabrícia Soares Freire%Pugêdo%NULL%1,          Daniel Costa%Queiroz%NULL%1,          Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,          Luciana Cunha%Resende-Moreira%NULL%1,          Franciele Martins%Santos%NULL%1,          Erika Fernanda Carlos%Souza%NULL%1,          Carolina Moreira%Voloch%NULL%1,          Ana Tereza%Vasconcelos%NULL%1,          Renato Santana%de Aguiar%NULL%1,          Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -514,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -543,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -572,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="63">
   <si>
     <t>Doi</t>
   </si>
@@ -204,6 +204,24 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,          Diego%Menezes%NULL%1,          Filipe Romero Rebello%Moreira%NULL%1,          Octávio Alcântara%Torres%NULL%1,          Paula Luize Camargos%Fonseca%NULL%1,          Rennan Garcias%Moreira%NULL%1,          Hugo José%Alves%NULL%1,          Vivian Ribeiro%Alves%NULL%1,          Tânia Maria de Resende%Amaral%NULL%1,          Adriano Neves%Coelho%NULL%1,          Júlia Maria%Saraiva Duarte%NULL%1,          Augusto Viana%da Rocha%NULL%1,          Luiz Gonzaga Paula%de Almeida%NULL%1,          João Locke Ferreira%de Araújo%NULL%1,          Hilton Soares%de Oliveira%NULL%1,          Nova Jersey Cláudio%de Oliveira%NULL%1,          Camila%Zolini%NULL%1,          Jôsy Hubner%de Sousa%NULL%1,          Elizângela Gonçalves%de Souza%NULL%1,          Rafael Marques%de Souza%NULL%1,          Luciana de Lima%Ferreira%NULL%1,          Alexandra%Lehmkuhl Gerber%NULL%1,          Ana Paula de Campos%Guimarães%NULL%1,          Paulo Henrique Silva%Maia%NULL%1,          Fernanda Martins%Marim%NULL%1,          Lucyene%Miguita%NULL%1,          Cristiane Campos%Monteiro%NULL%1,          Tuffi Saliba%Neto%NULL%1,          Fabrícia Soares Freire%Pugêdo%NULL%1,          Daniel Costa%Queiroz%NULL%1,          Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,          Luciana Cunha%Resende-Moreira%NULL%1,          Franciele Martins%Santos%NULL%1,          Erika Fernanda Carlos%Souza%NULL%1,          Carolina Moreira%Voloch%NULL%1,          Ana Tereza%Vasconcelos%NULL%1,          Renato Santana%de Aguiar%NULL%1,          Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,     Kaniz\u2010e\u2010%Zannat%xref no email%1,     Shiny%Talukder%xref no email%1,     Amirul Huda%Bhuiyan%xref no email%1,     Md. Shariful Alam%Jilani%xref no email%1,     K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,           Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,           Sirwan M. A.%Al‐Jaf%NULL%2,           Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,           Diego%Menezes%NULL%1,           Filipe Romero Rebello%Moreira%NULL%1,           Octávio Alcântara%Torres%NULL%1,           Paula Luize Camargos%Fonseca%NULL%1,           Rennan Garcias%Moreira%NULL%1,           Hugo José%Alves%NULL%1,           Vivian Ribeiro%Alves%NULL%1,           Tânia Maria de Resende%Amaral%NULL%1,           Adriano Neves%Coelho%NULL%1,           Júlia Maria%Saraiva Duarte%NULL%1,           Augusto Viana%da Rocha%NULL%1,           Luiz Gonzaga Paula%de Almeida%NULL%1,           João Locke Ferreira%de Araújo%NULL%1,           Hilton Soares%de Oliveira%NULL%1,           Nova Jersey Cláudio%de Oliveira%NULL%1,           Camila%Zolini%NULL%1,           Jôsy Hubner%de Sousa%NULL%1,           Elizângela Gonçalves%de Souza%NULL%1,           Rafael Marques%de Souza%NULL%1,           Luciana de Lima%Ferreira%NULL%1,           Alexandra%Lehmkuhl Gerber%NULL%1,           Ana Paula de Campos%Guimarães%NULL%1,           Paulo Henrique Silva%Maia%NULL%1,           Fernanda Martins%Marim%NULL%1,           Lucyene%Miguita%NULL%1,           Cristiane Campos%Monteiro%NULL%1,           Tuffi Saliba%Neto%NULL%1,           Fabrícia Soares Freire%Pugêdo%NULL%1,           Daniel Costa%Queiroz%NULL%1,           Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,           Luciana Cunha%Resende-Moreira%NULL%1,           Franciele Martins%Santos%NULL%1,           Erika Fernanda Carlos%Souza%NULL%1,           Carolina Moreira%Voloch%NULL%1,           Ana Tereza%Vasconcelos%NULL%1,           Renato Santana%de Aguiar%NULL%1,           Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,      Kaniz\u2010e\u2010%Zannat%xref no email%1,      Shiny%Talukder%xref no email%1,      Amirul Huda%Bhuiyan%xref no email%1,      Md. Shariful Alam%Jilani%xref no email%1,      K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,            Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,            Sirwan M. A.%Al‐Jaf%NULL%2,            Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,            Diego%Menezes%NULL%1,            Filipe Romero Rebello%Moreira%NULL%1,            Octávio Alcântara%Torres%NULL%1,            Paula Luize Camargos%Fonseca%NULL%1,            Rennan Garcias%Moreira%NULL%1,            Hugo José%Alves%NULL%1,            Vivian Ribeiro%Alves%NULL%1,            Tânia Maria de Resende%Amaral%NULL%1,            Adriano Neves%Coelho%NULL%1,            Júlia Maria%Saraiva Duarte%NULL%1,            Augusto Viana%da Rocha%NULL%1,            Luiz Gonzaga Paula%de Almeida%NULL%1,            João Locke Ferreira%de Araújo%NULL%1,            Hilton Soares%de Oliveira%NULL%1,            Nova Jersey Cláudio%de Oliveira%NULL%1,            Camila%Zolini%NULL%1,            Jôsy Hubner%de Sousa%NULL%1,            Elizângela Gonçalves%de Souza%NULL%1,            Rafael Marques%de Souza%NULL%1,            Luciana de Lima%Ferreira%NULL%1,            Alexandra%Lehmkuhl Gerber%NULL%1,            Ana Paula de Campos%Guimarães%NULL%1,            Paulo Henrique Silva%Maia%NULL%1,            Fernanda Martins%Marim%NULL%1,            Lucyene%Miguita%NULL%1,            Cristiane Campos%Monteiro%NULL%1,            Tuffi Saliba%Neto%NULL%1,            Fabrícia Soares Freire%Pugêdo%NULL%1,            Daniel Costa%Queiroz%NULL%1,            Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,            Luciana Cunha%Resende-Moreira%NULL%1,            Franciele Martins%Santos%NULL%1,            Erika Fernanda Carlos%Souza%NULL%1,            Carolina Moreira%Voloch%NULL%1,            Ana Tereza%Vasconcelos%NULL%1,            Renato Santana%de Aguiar%NULL%1,            Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -532,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -561,7 +579,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -590,7 +608,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="66">
   <si>
     <t>Doi</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,            Diego%Menezes%NULL%1,            Filipe Romero Rebello%Moreira%NULL%1,            Octávio Alcântara%Torres%NULL%1,            Paula Luize Camargos%Fonseca%NULL%1,            Rennan Garcias%Moreira%NULL%1,            Hugo José%Alves%NULL%1,            Vivian Ribeiro%Alves%NULL%1,            Tânia Maria de Resende%Amaral%NULL%1,            Adriano Neves%Coelho%NULL%1,            Júlia Maria%Saraiva Duarte%NULL%1,            Augusto Viana%da Rocha%NULL%1,            Luiz Gonzaga Paula%de Almeida%NULL%1,            João Locke Ferreira%de Araújo%NULL%1,            Hilton Soares%de Oliveira%NULL%1,            Nova Jersey Cláudio%de Oliveira%NULL%1,            Camila%Zolini%NULL%1,            Jôsy Hubner%de Sousa%NULL%1,            Elizângela Gonçalves%de Souza%NULL%1,            Rafael Marques%de Souza%NULL%1,            Luciana de Lima%Ferreira%NULL%1,            Alexandra%Lehmkuhl Gerber%NULL%1,            Ana Paula de Campos%Guimarães%NULL%1,            Paulo Henrique Silva%Maia%NULL%1,            Fernanda Martins%Marim%NULL%1,            Lucyene%Miguita%NULL%1,            Cristiane Campos%Monteiro%NULL%1,            Tuffi Saliba%Neto%NULL%1,            Fabrícia Soares Freire%Pugêdo%NULL%1,            Daniel Costa%Queiroz%NULL%1,            Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,            Luciana Cunha%Resende-Moreira%NULL%1,            Franciele Martins%Santos%NULL%1,            Erika Fernanda Carlos%Souza%NULL%1,            Carolina Moreira%Voloch%NULL%1,            Ana Tereza%Vasconcelos%NULL%1,            Renato Santana%de Aguiar%NULL%1,            Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,       Kaniz\u2010e\u2010%Zannat%xref no email%1,       Shiny%Talukder%xref no email%1,       Amirul Huda%Bhuiyan%xref no email%1,       Md. Shariful Alam%Jilani%xref no email%1,       K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,             Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,             Sirwan M. A.%Al‐Jaf%NULL%2,             Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,             Diego%Menezes%NULL%1,             Filipe Romero Rebello%Moreira%NULL%1,             Octávio Alcântara%Torres%NULL%1,             Paula Luize Camargos%Fonseca%NULL%1,             Rennan Garcias%Moreira%NULL%1,             Hugo José%Alves%NULL%1,             Vivian Ribeiro%Alves%NULL%1,             Tânia Maria de Resende%Amaral%NULL%1,             Adriano Neves%Coelho%NULL%1,             Júlia Maria%Saraiva Duarte%NULL%1,             Augusto Viana%da Rocha%NULL%1,             Luiz Gonzaga Paula%de Almeida%NULL%1,             João Locke Ferreira%de Araújo%NULL%1,             Hilton Soares%de Oliveira%NULL%1,             Nova Jersey Cláudio%de Oliveira%NULL%1,             Camila%Zolini%NULL%1,             Jôsy Hubner%de Sousa%NULL%1,             Elizângela Gonçalves%de Souza%NULL%1,             Rafael Marques%de Souza%NULL%1,             Luciana de Lima%Ferreira%NULL%1,             Alexandra%Lehmkuhl Gerber%NULL%1,             Ana Paula de Campos%Guimarães%NULL%1,             Paulo Henrique Silva%Maia%NULL%1,             Fernanda Martins%Marim%NULL%1,             Lucyene%Miguita%NULL%1,             Cristiane Campos%Monteiro%NULL%1,             Tuffi Saliba%Neto%NULL%1,             Fabrícia Soares Freire%Pugêdo%NULL%1,             Daniel Costa%Queiroz%NULL%1,             Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,             Luciana Cunha%Resende-Moreira%NULL%1,             Franciele Martins%Santos%NULL%1,             Erika Fernanda Carlos%Souza%NULL%1,             Carolina Moreira%Voloch%NULL%1,             Ana Tereza%Vasconcelos%NULL%1,             Renato Santana%de Aguiar%NULL%1,             Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -550,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -579,7 +588,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -608,7 +617,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="69">
   <si>
     <t>Doi</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,             Diego%Menezes%NULL%1,             Filipe Romero Rebello%Moreira%NULL%1,             Octávio Alcântara%Torres%NULL%1,             Paula Luize Camargos%Fonseca%NULL%1,             Rennan Garcias%Moreira%NULL%1,             Hugo José%Alves%NULL%1,             Vivian Ribeiro%Alves%NULL%1,             Tânia Maria de Resende%Amaral%NULL%1,             Adriano Neves%Coelho%NULL%1,             Júlia Maria%Saraiva Duarte%NULL%1,             Augusto Viana%da Rocha%NULL%1,             Luiz Gonzaga Paula%de Almeida%NULL%1,             João Locke Ferreira%de Araújo%NULL%1,             Hilton Soares%de Oliveira%NULL%1,             Nova Jersey Cláudio%de Oliveira%NULL%1,             Camila%Zolini%NULL%1,             Jôsy Hubner%de Sousa%NULL%1,             Elizângela Gonçalves%de Souza%NULL%1,             Rafael Marques%de Souza%NULL%1,             Luciana de Lima%Ferreira%NULL%1,             Alexandra%Lehmkuhl Gerber%NULL%1,             Ana Paula de Campos%Guimarães%NULL%1,             Paulo Henrique Silva%Maia%NULL%1,             Fernanda Martins%Marim%NULL%1,             Lucyene%Miguita%NULL%1,             Cristiane Campos%Monteiro%NULL%1,             Tuffi Saliba%Neto%NULL%1,             Fabrícia Soares Freire%Pugêdo%NULL%1,             Daniel Costa%Queiroz%NULL%1,             Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,             Luciana Cunha%Resende-Moreira%NULL%1,             Franciele Martins%Santos%NULL%1,             Erika Fernanda Carlos%Souza%NULL%1,             Carolina Moreira%Voloch%NULL%1,             Ana Tereza%Vasconcelos%NULL%1,             Renato Santana%de Aguiar%NULL%1,             Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,        Kaniz\u2010e\u2010%Zannat%xref no email%1,        Shiny%Talukder%xref no email%1,        Amirul Huda%Bhuiyan%xref no email%1,        Md. Shariful Alam%Jilani%xref no email%1,        K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,              Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,              Sirwan M. A.%Al‐Jaf%NULL%2,              Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,              Diego%Menezes%NULL%1,              Filipe Romero Rebello%Moreira%NULL%1,              Octávio Alcântara%Torres%NULL%1,              Paula Luize Camargos%Fonseca%NULL%1,              Rennan Garcias%Moreira%NULL%1,              Hugo José%Alves%NULL%1,              Vivian Ribeiro%Alves%NULL%1,              Tânia Maria de Resende%Amaral%NULL%1,              Adriano Neves%Coelho%NULL%1,              Júlia Maria%Saraiva Duarte%NULL%1,              Augusto Viana%da Rocha%NULL%1,              Luiz Gonzaga Paula%de Almeida%NULL%1,              João Locke Ferreira%de Araújo%NULL%1,              Hilton Soares%de Oliveira%NULL%1,              Nova Jersey Cláudio%de Oliveira%NULL%1,              Camila%Zolini%NULL%1,              Jôsy Hubner%de Sousa%NULL%1,              Elizângela Gonçalves%de Souza%NULL%1,              Rafael Marques%de Souza%NULL%1,              Luciana de Lima%Ferreira%NULL%1,              Alexandra%Lehmkuhl Gerber%NULL%1,              Ana Paula de Campos%Guimarães%NULL%1,              Paulo Henrique Silva%Maia%NULL%1,              Fernanda Martins%Marim%NULL%1,              Lucyene%Miguita%NULL%1,              Cristiane Campos%Monteiro%NULL%1,              Tuffi Saliba%Neto%NULL%1,              Fabrícia Soares Freire%Pugêdo%NULL%1,              Daniel Costa%Queiroz%NULL%1,              Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,              Luciana Cunha%Resende-Moreira%NULL%1,              Franciele Martins%Santos%NULL%1,              Erika Fernanda Carlos%Souza%NULL%1,              Carolina Moreira%Voloch%NULL%1,              Ana Tereza%Vasconcelos%NULL%1,              Renato Santana%de Aguiar%NULL%1,              Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -559,7 +568,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -588,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -617,7 +626,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="75">
   <si>
     <t>Doi</t>
   </si>
@@ -240,6 +240,24 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,              Diego%Menezes%NULL%1,              Filipe Romero Rebello%Moreira%NULL%1,              Octávio Alcântara%Torres%NULL%1,              Paula Luize Camargos%Fonseca%NULL%1,              Rennan Garcias%Moreira%NULL%1,              Hugo José%Alves%NULL%1,              Vivian Ribeiro%Alves%NULL%1,              Tânia Maria de Resende%Amaral%NULL%1,              Adriano Neves%Coelho%NULL%1,              Júlia Maria%Saraiva Duarte%NULL%1,              Augusto Viana%da Rocha%NULL%1,              Luiz Gonzaga Paula%de Almeida%NULL%1,              João Locke Ferreira%de Araújo%NULL%1,              Hilton Soares%de Oliveira%NULL%1,              Nova Jersey Cláudio%de Oliveira%NULL%1,              Camila%Zolini%NULL%1,              Jôsy Hubner%de Sousa%NULL%1,              Elizângela Gonçalves%de Souza%NULL%1,              Rafael Marques%de Souza%NULL%1,              Luciana de Lima%Ferreira%NULL%1,              Alexandra%Lehmkuhl Gerber%NULL%1,              Ana Paula de Campos%Guimarães%NULL%1,              Paulo Henrique Silva%Maia%NULL%1,              Fernanda Martins%Marim%NULL%1,              Lucyene%Miguita%NULL%1,              Cristiane Campos%Monteiro%NULL%1,              Tuffi Saliba%Neto%NULL%1,              Fabrícia Soares Freire%Pugêdo%NULL%1,              Daniel Costa%Queiroz%NULL%1,              Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,              Luciana Cunha%Resende-Moreira%NULL%1,              Franciele Martins%Santos%NULL%1,              Erika Fernanda Carlos%Souza%NULL%1,              Carolina Moreira%Voloch%NULL%1,              Ana Tereza%Vasconcelos%NULL%1,              Renato Santana%de Aguiar%NULL%1,              Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,         Kaniz\u2010e\u2010%Zannat%xref no email%1,         Shiny%Talukder%xref no email%1,         Amirul Huda%Bhuiyan%xref no email%1,         Md. Shariful Alam%Jilani%xref no email%1,         K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,               Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,               Sirwan M. A.%Al‐Jaf%NULL%2,               Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,               Diego%Menezes%NULL%1,               Filipe Romero Rebello%Moreira%NULL%1,               Octávio Alcântara%Torres%NULL%1,               Paula Luize Camargos%Fonseca%NULL%1,               Rennan Garcias%Moreira%NULL%1,               Hugo José%Alves%NULL%1,               Vivian Ribeiro%Alves%NULL%1,               Tânia Maria de Resende%Amaral%NULL%1,               Adriano Neves%Coelho%NULL%1,               Júlia Maria%Saraiva Duarte%NULL%1,               Augusto Viana%da Rocha%NULL%1,               Luiz Gonzaga Paula%de Almeida%NULL%1,               João Locke Ferreira%de Araújo%NULL%1,               Hilton Soares%de Oliveira%NULL%1,               Nova Jersey Cláudio%de Oliveira%NULL%1,               Camila%Zolini%NULL%1,               Jôsy Hubner%de Sousa%NULL%1,               Elizângela Gonçalves%de Souza%NULL%1,               Rafael Marques%de Souza%NULL%1,               Luciana de Lima%Ferreira%NULL%1,               Alexandra%Lehmkuhl Gerber%NULL%1,               Ana Paula de Campos%Guimarães%NULL%1,               Paulo Henrique Silva%Maia%NULL%1,               Fernanda Martins%Marim%NULL%1,               Lucyene%Miguita%NULL%1,               Cristiane Campos%Monteiro%NULL%1,               Tuffi Saliba%Neto%NULL%1,               Fabrícia Soares Freire%Pugêdo%NULL%1,               Daniel Costa%Queiroz%NULL%1,               Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,               Luciana Cunha%Resende-Moreira%NULL%1,               Franciele Martins%Santos%NULL%1,               Erika Fernanda Carlos%Souza%NULL%1,               Carolina Moreira%Voloch%NULL%1,               Ana Tereza%Vasconcelos%NULL%1,               Renato Santana%de Aguiar%NULL%1,               Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,          Kaniz\u2010e\u2010%Zannat%xref no email%1,          Shiny%Talukder%xref no email%1,          Amirul Huda%Bhuiyan%xref no email%1,          Md. Shariful Alam%Jilani%xref no email%1,          K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                Sirwan M. A.%Al‐Jaf%NULL%2,                Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                Diego%Menezes%NULL%1,                Filipe Romero Rebello%Moreira%NULL%1,                Octávio Alcântara%Torres%NULL%1,                Paula Luize Camargos%Fonseca%NULL%1,                Rennan Garcias%Moreira%NULL%1,                Hugo José%Alves%NULL%1,                Vivian Ribeiro%Alves%NULL%1,                Tânia Maria de Resende%Amaral%NULL%1,                Adriano Neves%Coelho%NULL%1,                Júlia Maria%Saraiva Duarte%NULL%1,                Augusto Viana%da Rocha%NULL%1,                Luiz Gonzaga Paula%de Almeida%NULL%1,                João Locke Ferreira%de Araújo%NULL%1,                Hilton Soares%de Oliveira%NULL%1,                Nova Jersey Cláudio%de Oliveira%NULL%1,                Camila%Zolini%NULL%1,                Jôsy Hubner%de Sousa%NULL%1,                Elizângela Gonçalves%de Souza%NULL%1,                Rafael Marques%de Souza%NULL%1,                Luciana de Lima%Ferreira%NULL%1,                Alexandra%Lehmkuhl Gerber%NULL%1,                Ana Paula de Campos%Guimarães%NULL%1,                Paulo Henrique Silva%Maia%NULL%1,                Fernanda Martins%Marim%NULL%1,                Lucyene%Miguita%NULL%1,                Cristiane Campos%Monteiro%NULL%1,                Tuffi Saliba%Neto%NULL%1,                Fabrícia Soares Freire%Pugêdo%NULL%1,                Daniel Costa%Queiroz%NULL%1,                Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                Luciana Cunha%Resende-Moreira%NULL%1,                Franciele Martins%Santos%NULL%1,                Erika Fernanda Carlos%Souza%NULL%1,                Carolina Moreira%Voloch%NULL%1,                Ana Tereza%Vasconcelos%NULL%1,                Renato Santana%de Aguiar%NULL%1,                Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -568,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -597,7 +615,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -626,7 +644,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="78">
   <si>
     <t>Doi</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                Diego%Menezes%NULL%1,                Filipe Romero Rebello%Moreira%NULL%1,                Octávio Alcântara%Torres%NULL%1,                Paula Luize Camargos%Fonseca%NULL%1,                Rennan Garcias%Moreira%NULL%1,                Hugo José%Alves%NULL%1,                Vivian Ribeiro%Alves%NULL%1,                Tânia Maria de Resende%Amaral%NULL%1,                Adriano Neves%Coelho%NULL%1,                Júlia Maria%Saraiva Duarte%NULL%1,                Augusto Viana%da Rocha%NULL%1,                Luiz Gonzaga Paula%de Almeida%NULL%1,                João Locke Ferreira%de Araújo%NULL%1,                Hilton Soares%de Oliveira%NULL%1,                Nova Jersey Cláudio%de Oliveira%NULL%1,                Camila%Zolini%NULL%1,                Jôsy Hubner%de Sousa%NULL%1,                Elizângela Gonçalves%de Souza%NULL%1,                Rafael Marques%de Souza%NULL%1,                Luciana de Lima%Ferreira%NULL%1,                Alexandra%Lehmkuhl Gerber%NULL%1,                Ana Paula de Campos%Guimarães%NULL%1,                Paulo Henrique Silva%Maia%NULL%1,                Fernanda Martins%Marim%NULL%1,                Lucyene%Miguita%NULL%1,                Cristiane Campos%Monteiro%NULL%1,                Tuffi Saliba%Neto%NULL%1,                Fabrícia Soares Freire%Pugêdo%NULL%1,                Daniel Costa%Queiroz%NULL%1,                Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                Luciana Cunha%Resende-Moreira%NULL%1,                Franciele Martins%Santos%NULL%1,                Erika Fernanda Carlos%Souza%NULL%1,                Carolina Moreira%Voloch%NULL%1,                Ana Tereza%Vasconcelos%NULL%1,                Renato Santana%de Aguiar%NULL%1,                Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,           Kaniz\u2010e\u2010%Zannat%xref no email%1,           Shiny%Talukder%xref no email%1,           Amirul Huda%Bhuiyan%xref no email%1,           Md. Shariful Alam%Jilani%xref no email%1,           K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                 Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                 Sirwan M. A.%Al‐Jaf%NULL%2,                 Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                 Diego%Menezes%NULL%1,                 Filipe Romero Rebello%Moreira%NULL%1,                 Octávio Alcântara%Torres%NULL%1,                 Paula Luize Camargos%Fonseca%NULL%1,                 Rennan Garcias%Moreira%NULL%1,                 Hugo José%Alves%NULL%1,                 Vivian Ribeiro%Alves%NULL%1,                 Tânia Maria de Resende%Amaral%NULL%1,                 Adriano Neves%Coelho%NULL%1,                 Júlia Maria%Saraiva Duarte%NULL%1,                 Augusto Viana%da Rocha%NULL%1,                 Luiz Gonzaga Paula%de Almeida%NULL%1,                 João Locke Ferreira%de Araújo%NULL%1,                 Hilton Soares%de Oliveira%NULL%1,                 Nova Jersey Cláudio%de Oliveira%NULL%1,                 Camila%Zolini%NULL%1,                 Jôsy Hubner%de Sousa%NULL%1,                 Elizângela Gonçalves%de Souza%NULL%1,                 Rafael Marques%de Souza%NULL%1,                 Luciana de Lima%Ferreira%NULL%1,                 Alexandra%Lehmkuhl Gerber%NULL%1,                 Ana Paula de Campos%Guimarães%NULL%1,                 Paulo Henrique Silva%Maia%NULL%1,                 Fernanda Martins%Marim%NULL%1,                 Lucyene%Miguita%NULL%1,                 Cristiane Campos%Monteiro%NULL%1,                 Tuffi Saliba%Neto%NULL%1,                 Fabrícia Soares Freire%Pugêdo%NULL%1,                 Daniel Costa%Queiroz%NULL%1,                 Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                 Luciana Cunha%Resende-Moreira%NULL%1,                 Franciele Martins%Santos%NULL%1,                 Erika Fernanda Carlos%Souza%NULL%1,                 Carolina Moreira%Voloch%NULL%1,                 Ana Tereza%Vasconcelos%NULL%1,                 Renato Santana%de Aguiar%NULL%1,                 Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -586,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -615,7 +624,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -644,7 +653,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="83">
   <si>
     <t>Doi</t>
   </si>
@@ -267,6 +267,21 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                 Diego%Menezes%NULL%1,                 Filipe Romero Rebello%Moreira%NULL%1,                 Octávio Alcântara%Torres%NULL%1,                 Paula Luize Camargos%Fonseca%NULL%1,                 Rennan Garcias%Moreira%NULL%1,                 Hugo José%Alves%NULL%1,                 Vivian Ribeiro%Alves%NULL%1,                 Tânia Maria de Resende%Amaral%NULL%1,                 Adriano Neves%Coelho%NULL%1,                 Júlia Maria%Saraiva Duarte%NULL%1,                 Augusto Viana%da Rocha%NULL%1,                 Luiz Gonzaga Paula%de Almeida%NULL%1,                 João Locke Ferreira%de Araújo%NULL%1,                 Hilton Soares%de Oliveira%NULL%1,                 Nova Jersey Cláudio%de Oliveira%NULL%1,                 Camila%Zolini%NULL%1,                 Jôsy Hubner%de Sousa%NULL%1,                 Elizângela Gonçalves%de Souza%NULL%1,                 Rafael Marques%de Souza%NULL%1,                 Luciana de Lima%Ferreira%NULL%1,                 Alexandra%Lehmkuhl Gerber%NULL%1,                 Ana Paula de Campos%Guimarães%NULL%1,                 Paulo Henrique Silva%Maia%NULL%1,                 Fernanda Martins%Marim%NULL%1,                 Lucyene%Miguita%NULL%1,                 Cristiane Campos%Monteiro%NULL%1,                 Tuffi Saliba%Neto%NULL%1,                 Fabrícia Soares Freire%Pugêdo%NULL%1,                 Daniel Costa%Queiroz%NULL%1,                 Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                 Luciana Cunha%Resende-Moreira%NULL%1,                 Franciele Martins%Santos%NULL%1,                 Erika Fernanda Carlos%Souza%NULL%1,                 Carolina Moreira%Voloch%NULL%1,                 Ana Tereza%Vasconcelos%NULL%1,                 Renato Santana%de Aguiar%NULL%1,                 Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,            Kaniz\u2010e\u2010%Zannat%xref no email%1,            Shiny%Talukder%xref no email%1,            Amirul Huda%Bhuiyan%xref no email%1,            Md. Shariful Alam%Jilani%xref no email%1,            K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                  Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                  Sirwan M. A.%Al‐Jaf%NULL%2,                  Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                  Diego%Menezes%NULL%1,                  Filipe Romero Rebello%Moreira%NULL%1,                  Octávio Alcântara%Torres%NULL%1,                  Paula Luize Camargos%Fonseca%NULL%1,                  Rennan Garcias%Moreira%NULL%1,                  Hugo José%Alves%NULL%1,                  Vivian Ribeiro%Alves%NULL%1,                  Tânia Maria de Resende%Amaral%NULL%1,                  Adriano Neves%Coelho%NULL%1,                  Júlia Maria%Saraiva Duarte%NULL%1,                  Augusto Viana%da Rocha%NULL%1,                  Luiz Gonzaga Paula%de Almeida%NULL%1,                  João Locke Ferreira%de Araújo%NULL%1,                  Hilton Soares%de Oliveira%NULL%1,                  Nova Jersey Cláudio%de Oliveira%NULL%1,                  Camila%Zolini%NULL%1,                  Jôsy Hubner%de Sousa%NULL%1,                  Elizângela Gonçalves%de Souza%NULL%1,                  Rafael Marques%de Souza%NULL%1,                  Luciana de Lima%Ferreira%NULL%1,                  Alexandra%Lehmkuhl Gerber%NULL%1,                  Ana Paula de Campos%Guimarães%NULL%1,                  Paulo Henrique Silva%Maia%NULL%1,                  Fernanda Martins%Marim%NULL%1,                  Lucyene%Miguita%NULL%1,                  Cristiane Campos%Monteiro%NULL%1,                  Tuffi Saliba%Neto%NULL%1,                  Fabrícia Soares Freire%Pugêdo%NULL%1,                  Daniel Costa%Queiroz%NULL%1,                  Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                  Luciana Cunha%Resende-Moreira%NULL%1,                  Franciele Martins%Santos%NULL%1,                  Erika Fernanda Carlos%Souza%NULL%1,                  Carolina Moreira%Voloch%NULL%1,                  Ana Tereza%Vasconcelos%NULL%1,                  Renato Santana%de Aguiar%NULL%1,                  Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -595,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -607,7 +622,7 @@
         <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -624,7 +639,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -636,7 +651,7 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -653,7 +668,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -665,7 +680,7 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="86">
   <si>
     <t>Doi</t>
   </si>
@@ -282,6 +282,15 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                  Diego%Menezes%NULL%1,                  Filipe Romero Rebello%Moreira%NULL%1,                  Octávio Alcântara%Torres%NULL%1,                  Paula Luize Camargos%Fonseca%NULL%1,                  Rennan Garcias%Moreira%NULL%1,                  Hugo José%Alves%NULL%1,                  Vivian Ribeiro%Alves%NULL%1,                  Tânia Maria de Resende%Amaral%NULL%1,                  Adriano Neves%Coelho%NULL%1,                  Júlia Maria%Saraiva Duarte%NULL%1,                  Augusto Viana%da Rocha%NULL%1,                  Luiz Gonzaga Paula%de Almeida%NULL%1,                  João Locke Ferreira%de Araújo%NULL%1,                  Hilton Soares%de Oliveira%NULL%1,                  Nova Jersey Cláudio%de Oliveira%NULL%1,                  Camila%Zolini%NULL%1,                  Jôsy Hubner%de Sousa%NULL%1,                  Elizângela Gonçalves%de Souza%NULL%1,                  Rafael Marques%de Souza%NULL%1,                  Luciana de Lima%Ferreira%NULL%1,                  Alexandra%Lehmkuhl Gerber%NULL%1,                  Ana Paula de Campos%Guimarães%NULL%1,                  Paulo Henrique Silva%Maia%NULL%1,                  Fernanda Martins%Marim%NULL%1,                  Lucyene%Miguita%NULL%1,                  Cristiane Campos%Monteiro%NULL%1,                  Tuffi Saliba%Neto%NULL%1,                  Fabrícia Soares Freire%Pugêdo%NULL%1,                  Daniel Costa%Queiroz%NULL%1,                  Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                  Luciana Cunha%Resende-Moreira%NULL%1,                  Franciele Martins%Santos%NULL%1,                  Erika Fernanda Carlos%Souza%NULL%1,                  Carolina Moreira%Voloch%NULL%1,                  Ana Tereza%Vasconcelos%NULL%1,                  Renato Santana%de Aguiar%NULL%1,                  Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%1,             Kaniz\u2010e\u2010%Zannat%xref no email%1,             Shiny%Talukder%xref no email%1,             Amirul Huda%Bhuiyan%xref no email%1,             Md. Shariful Alam%Jilani%xref no email%1,             K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                   Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                   Sirwan M. A.%Al‐Jaf%NULL%2,                   Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                   Diego%Menezes%NULL%1,                   Filipe Romero Rebello%Moreira%NULL%1,                   Octávio Alcântara%Torres%NULL%1,                   Paula Luize Camargos%Fonseca%NULL%1,                   Rennan Garcias%Moreira%NULL%1,                   Hugo José%Alves%NULL%1,                   Vivian Ribeiro%Alves%NULL%1,                   Tânia Maria de Resende%Amaral%NULL%1,                   Adriano Neves%Coelho%NULL%1,                   Júlia Maria%Saraiva Duarte%NULL%1,                   Augusto Viana%da Rocha%NULL%1,                   Luiz Gonzaga Paula%de Almeida%NULL%1,                   João Locke Ferreira%de Araújo%NULL%1,                   Hilton Soares%de Oliveira%NULL%1,                   Nova Jersey Cláudio%de Oliveira%NULL%1,                   Camila%Zolini%NULL%1,                   Jôsy Hubner%de Sousa%NULL%1,                   Elizângela Gonçalves%de Souza%NULL%1,                   Rafael Marques%de Souza%NULL%1,                   Luciana de Lima%Ferreira%NULL%1,                   Alexandra%Lehmkuhl Gerber%NULL%1,                   Ana Paula de Campos%Guimarães%NULL%1,                   Paulo Henrique Silva%Maia%NULL%1,                   Fernanda Martins%Marim%NULL%1,                   Lucyene%Miguita%NULL%1,                   Cristiane Campos%Monteiro%NULL%1,                   Tuffi Saliba%Neto%NULL%1,                   Fabrícia Soares Freire%Pugêdo%NULL%1,                   Daniel Costa%Queiroz%NULL%1,                   Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                   Luciana Cunha%Resende-Moreira%NULL%1,                   Franciele Martins%Santos%NULL%1,                   Erika Fernanda Carlos%Souza%NULL%1,                   Carolina Moreira%Voloch%NULL%1,                   Ana Tereza%Vasconcelos%NULL%1,                   Renato Santana%de Aguiar%NULL%1,                   Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -610,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -639,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -668,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="99">
   <si>
     <t>Doi</t>
   </si>
@@ -291,6 +291,45 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                   Diego%Menezes%NULL%1,                   Filipe Romero Rebello%Moreira%NULL%1,                   Octávio Alcântara%Torres%NULL%1,                   Paula Luize Camargos%Fonseca%NULL%1,                   Rennan Garcias%Moreira%NULL%1,                   Hugo José%Alves%NULL%1,                   Vivian Ribeiro%Alves%NULL%1,                   Tânia Maria de Resende%Amaral%NULL%1,                   Adriano Neves%Coelho%NULL%1,                   Júlia Maria%Saraiva Duarte%NULL%1,                   Augusto Viana%da Rocha%NULL%1,                   Luiz Gonzaga Paula%de Almeida%NULL%1,                   João Locke Ferreira%de Araújo%NULL%1,                   Hilton Soares%de Oliveira%NULL%1,                   Nova Jersey Cláudio%de Oliveira%NULL%1,                   Camila%Zolini%NULL%1,                   Jôsy Hubner%de Sousa%NULL%1,                   Elizângela Gonçalves%de Souza%NULL%1,                   Rafael Marques%de Souza%NULL%1,                   Luciana de Lima%Ferreira%NULL%1,                   Alexandra%Lehmkuhl Gerber%NULL%1,                   Ana Paula de Campos%Guimarães%NULL%1,                   Paulo Henrique Silva%Maia%NULL%1,                   Fernanda Martins%Marim%NULL%1,                   Lucyene%Miguita%NULL%1,                   Cristiane Campos%Monteiro%NULL%1,                   Tuffi Saliba%Neto%NULL%1,                   Fabrícia Soares Freire%Pugêdo%NULL%1,                   Daniel Costa%Queiroz%NULL%1,                   Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                   Luciana Cunha%Resende-Moreira%NULL%1,                   Franciele Martins%Santos%NULL%1,                   Erika Fernanda Carlos%Souza%NULL%1,                   Carolina Moreira%Voloch%NULL%1,                   Ana Tereza%Vasconcelos%NULL%1,                   Renato Santana%de Aguiar%NULL%1,                   Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Paroma%Deb%xref no email%0, Kaniz\u2010e\u2010%Zannat%xref no email%1, Shiny%Talukder%xref no email%1, Amirul Huda%Bhuiyan%xref no email%1, Md. Shariful Alam%Jilani%xref no email%1, K. M.%Saif\u2010Ur\u2010Rahman%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                    Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                    Sirwan M. A.%Al‐Jaf%NULL%2,                    Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                    Diego%Menezes%NULL%1,                    Filipe Romero Rebello%Moreira%NULL%1,                    Octávio Alcântara%Torres%NULL%1,                    Paula Luize Camargos%Fonseca%NULL%1,                    Rennan Garcias%Moreira%NULL%1,                    Hugo José%Alves%NULL%1,                    Vivian Ribeiro%Alves%NULL%1,                    Tânia Maria de Resende%Amaral%NULL%1,                    Adriano Neves%Coelho%NULL%1,                    Júlia Maria%Saraiva Duarte%NULL%1,                    Augusto Viana%da Rocha%NULL%1,                    Luiz Gonzaga Paula%de Almeida%NULL%1,                    João Locke Ferreira%de Araújo%NULL%1,                    Hilton Soares%de Oliveira%NULL%1,                    Nova Jersey Cláudio%de Oliveira%NULL%1,                    Camila%Zolini%NULL%1,                    Jôsy Hubner%de Sousa%NULL%1,                    Elizângela Gonçalves%de Souza%NULL%1,                    Rafael Marques%de Souza%NULL%1,                    Luciana de Lima%Ferreira%NULL%1,                    Alexandra%Lehmkuhl Gerber%NULL%1,                    Ana Paula de Campos%Guimarães%NULL%1,                    Paulo Henrique Silva%Maia%NULL%1,                    Fernanda Martins%Marim%NULL%1,                    Lucyene%Miguita%NULL%1,                    Cristiane Campos%Monteiro%NULL%1,                    Tuffi Saliba%Neto%NULL%1,                    Fabrícia Soares Freire%Pugêdo%NULL%1,                    Daniel Costa%Queiroz%NULL%1,                    Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                    Luciana Cunha%Resende-Moreira%NULL%1,                    Franciele Martins%Santos%NULL%1,                    Erika Fernanda Carlos%Souza%NULL%1,                    Carolina Moreira%Voloch%NULL%1,                    Ana Tereza%Vasconcelos%NULL%1,                    Renato Santana%de Aguiar%NULL%1,                    Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                     Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                     Sirwan M. A.%Al‐Jaf%NULL%2,                     Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                     Diego%Menezes%NULL%1,                     Filipe Romero Rebello%Moreira%NULL%1,                     Octávio Alcântara%Torres%NULL%1,                     Paula Luize Camargos%Fonseca%NULL%1,                     Rennan Garcias%Moreira%NULL%1,                     Hugo José%Alves%NULL%1,                     Vivian Ribeiro%Alves%NULL%1,                     Tânia Maria de Resende%Amaral%NULL%1,                     Adriano Neves%Coelho%NULL%1,                     Júlia Maria%Saraiva Duarte%NULL%1,                     Augusto Viana%da Rocha%NULL%1,                     Luiz Gonzaga Paula%de Almeida%NULL%1,                     João Locke Ferreira%de Araújo%NULL%1,                     Hilton Soares%de Oliveira%NULL%1,                     Nova Jersey Cláudio%de Oliveira%NULL%1,                     Camila%Zolini%NULL%1,                     Jôsy Hubner%de Sousa%NULL%1,                     Elizângela Gonçalves%de Souza%NULL%1,                     Rafael Marques%de Souza%NULL%1,                     Luciana de Lima%Ferreira%NULL%1,                     Alexandra%Lehmkuhl Gerber%NULL%1,                     Ana Paula de Campos%Guimarães%NULL%1,                     Paulo Henrique Silva%Maia%NULL%1,                     Fernanda Martins%Marim%NULL%1,                     Lucyene%Miguita%NULL%1,                     Cristiane Campos%Monteiro%NULL%1,                     Tuffi Saliba%Neto%NULL%1,                     Fabrícia Soares Freire%Pugêdo%NULL%1,                     Daniel Costa%Queiroz%NULL%1,                     Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                     Luciana Cunha%Resende-Moreira%NULL%1,                     Franciele Martins%Santos%NULL%1,                     Erika Fernanda Carlos%Souza%NULL%1,                     Carolina Moreira%Voloch%NULL%1,                     Ana Tereza%Vasconcelos%NULL%1,                     Renato Santana%de Aguiar%NULL%1,                     Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                      Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                      Sirwan M. A.%Al‐Jaf%NULL%2,                      Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                      Diego%Menezes%NULL%1,                      Filipe Romero Rebello%Moreira%NULL%1,                      Octávio Alcântara%Torres%NULL%1,                      Paula Luize Camargos%Fonseca%NULL%1,                      Rennan Garcias%Moreira%NULL%1,                      Hugo José%Alves%NULL%1,                      Vivian Ribeiro%Alves%NULL%1,                      Tânia Maria de Resende%Amaral%NULL%1,                      Adriano Neves%Coelho%NULL%1,                      Júlia Maria%Saraiva Duarte%NULL%1,                      Augusto Viana%da Rocha%NULL%1,                      Luiz Gonzaga Paula%de Almeida%NULL%1,                      João Locke Ferreira%de Araújo%NULL%1,                      Hilton Soares%de Oliveira%NULL%1,                      Nova Jersey Cláudio%de Oliveira%NULL%1,                      Camila%Zolini%NULL%1,                      Jôsy Hubner%de Sousa%NULL%1,                      Elizângela Gonçalves%de Souza%NULL%1,                      Rafael Marques%de Souza%NULL%1,                      Luciana de Lima%Ferreira%NULL%1,                      Alexandra%Lehmkuhl Gerber%NULL%1,                      Ana Paula de Campos%Guimarães%NULL%1,                      Paulo Henrique Silva%Maia%NULL%1,                      Fernanda Martins%Marim%NULL%1,                      Lucyene%Miguita%NULL%1,                      Cristiane Campos%Monteiro%NULL%1,                      Tuffi Saliba%Neto%NULL%1,                      Fabrícia Soares Freire%Pugêdo%NULL%1,                      Daniel Costa%Queiroz%NULL%1,                      Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                      Luciana Cunha%Resende-Moreira%NULL%1,                      Franciele Martins%Santos%NULL%1,                      Erika Fernanda Carlos%Souza%NULL%1,                      Carolina Moreira%Voloch%NULL%1,                      Ana Tereza%Vasconcelos%NULL%1,                      Renato Santana%de Aguiar%NULL%1,                      Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                       Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                       Sirwan M. A.%Al‐Jaf%NULL%2,                       Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                       Diego%Menezes%NULL%1,                       Filipe Romero Rebello%Moreira%NULL%1,                       Octávio Alcântara%Torres%NULL%1,                       Paula Luize Camargos%Fonseca%NULL%1,                       Rennan Garcias%Moreira%NULL%1,                       Hugo José%Alves%NULL%1,                       Vivian Ribeiro%Alves%NULL%1,                       Tânia Maria de Resende%Amaral%NULL%1,                       Adriano Neves%Coelho%NULL%1,                       Júlia Maria%Saraiva Duarte%NULL%1,                       Augusto Viana%da Rocha%NULL%1,                       Luiz Gonzaga Paula%de Almeida%NULL%1,                       João Locke Ferreira%de Araújo%NULL%1,                       Hilton Soares%de Oliveira%NULL%1,                       Nova Jersey Cláudio%de Oliveira%NULL%1,                       Camila%Zolini%NULL%1,                       Jôsy Hubner%de Sousa%NULL%1,                       Elizângela Gonçalves%de Souza%NULL%1,                       Rafael Marques%de Souza%NULL%1,                       Luciana de Lima%Ferreira%NULL%1,                       Alexandra%Lehmkuhl Gerber%NULL%1,                       Ana Paula de Campos%Guimarães%NULL%1,                       Paulo Henrique Silva%Maia%NULL%1,                       Fernanda Martins%Marim%NULL%1,                       Lucyene%Miguita%NULL%1,                       Cristiane Campos%Monteiro%NULL%1,                       Tuffi Saliba%Neto%NULL%1,                       Fabrícia Soares Freire%Pugêdo%NULL%1,                       Daniel Costa%Queiroz%NULL%1,                       Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                       Luciana Cunha%Resende-Moreira%NULL%1,                       Franciele Martins%Santos%NULL%1,                       Erika Fernanda Carlos%Souza%NULL%1,                       Carolina Moreira%Voloch%NULL%1,                       Ana Tereza%Vasconcelos%NULL%1,                       Renato Santana%de Aguiar%NULL%1,                       Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                        Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                        Sirwan M. A.%Al‐Jaf%NULL%2,                        Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                        Diego%Menezes%NULL%1,                        Filipe Romero Rebello%Moreira%NULL%1,                        Octávio Alcântara%Torres%NULL%1,                        Paula Luize Camargos%Fonseca%NULL%1,                        Rennan Garcias%Moreira%NULL%1,                        Hugo José%Alves%NULL%1,                        Vivian Ribeiro%Alves%NULL%1,                        Tânia Maria de Resende%Amaral%NULL%1,                        Adriano Neves%Coelho%NULL%1,                        Júlia Maria%Saraiva Duarte%NULL%1,                        Augusto Viana%da Rocha%NULL%1,                        Luiz Gonzaga Paula%de Almeida%NULL%1,                        João Locke Ferreira%de Araújo%NULL%1,                        Hilton Soares%de Oliveira%NULL%1,                        Nova Jersey Cláudio%de Oliveira%NULL%1,                        Camila%Zolini%NULL%1,                        Jôsy Hubner%de Sousa%NULL%1,                        Elizângela Gonçalves%de Souza%NULL%1,                        Rafael Marques%de Souza%NULL%1,                        Luciana de Lima%Ferreira%NULL%1,                        Alexandra%Lehmkuhl Gerber%NULL%1,                        Ana Paula de Campos%Guimarães%NULL%1,                        Paulo Henrique Silva%Maia%NULL%1,                        Fernanda Martins%Marim%NULL%1,                        Lucyene%Miguita%NULL%1,                        Cristiane Campos%Monteiro%NULL%1,                        Tuffi Saliba%Neto%NULL%1,                        Fabrícia Soares Freire%Pugêdo%NULL%1,                        Daniel Costa%Queiroz%NULL%1,                        Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                        Luciana Cunha%Resende-Moreira%NULL%1,                        Franciele Martins%Santos%NULL%1,                        Erika Fernanda Carlos%Souza%NULL%1,                        Carolina Moreira%Voloch%NULL%1,                        Ana Tereza%Vasconcelos%NULL%1,                        Renato Santana%de Aguiar%NULL%1,                        Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -604,6 +643,9 @@
       <c r="I1" t="s">
         <v>31</v>
       </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -619,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -631,7 +673,10 @@
         <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -648,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -661,6 +706,9 @@
       </c>
       <c r="I3" t="s">
         <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -677,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -690,6 +738,9 @@
       </c>
       <c r="I4" t="s">
         <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/68.xlsx
+++ b/Covid_19_Dataset_and_References/References/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="103">
   <si>
     <t>Doi</t>
   </si>
@@ -330,6 +330,18 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                        Diego%Menezes%NULL%1,                        Filipe Romero Rebello%Moreira%NULL%1,                        Octávio Alcântara%Torres%NULL%1,                        Paula Luize Camargos%Fonseca%NULL%1,                        Rennan Garcias%Moreira%NULL%1,                        Hugo José%Alves%NULL%1,                        Vivian Ribeiro%Alves%NULL%1,                        Tânia Maria de Resende%Amaral%NULL%1,                        Adriano Neves%Coelho%NULL%1,                        Júlia Maria%Saraiva Duarte%NULL%1,                        Augusto Viana%da Rocha%NULL%1,                        Luiz Gonzaga Paula%de Almeida%NULL%1,                        João Locke Ferreira%de Araújo%NULL%1,                        Hilton Soares%de Oliveira%NULL%1,                        Nova Jersey Cláudio%de Oliveira%NULL%1,                        Camila%Zolini%NULL%1,                        Jôsy Hubner%de Sousa%NULL%1,                        Elizângela Gonçalves%de Souza%NULL%1,                        Rafael Marques%de Souza%NULL%1,                        Luciana de Lima%Ferreira%NULL%1,                        Alexandra%Lehmkuhl Gerber%NULL%1,                        Ana Paula de Campos%Guimarães%NULL%1,                        Paulo Henrique Silva%Maia%NULL%1,                        Fernanda Martins%Marim%NULL%1,                        Lucyene%Miguita%NULL%1,                        Cristiane Campos%Monteiro%NULL%1,                        Tuffi Saliba%Neto%NULL%1,                        Fabrícia Soares Freire%Pugêdo%NULL%1,                        Daniel Costa%Queiroz%NULL%1,                        Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                        Luciana Cunha%Resende-Moreira%NULL%1,                        Franciele Martins%Santos%NULL%1,                        Erika Fernanda Carlos%Souza%NULL%1,                        Carolina Moreira%Voloch%NULL%1,                        Ana Tereza%Vasconcelos%NULL%1,                        Renato Santana%de Aguiar%NULL%1,                        Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                         Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                         Sirwan M. A.%Al‐Jaf%NULL%2,                         Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                         Diego%Menezes%NULL%1,                         Filipe Romero Rebello%Moreira%NULL%1,                         Octávio Alcântara%Torres%NULL%1,                         Paula Luize Camargos%Fonseca%NULL%1,                         Rennan Garcias%Moreira%NULL%1,                         Hugo José%Alves%NULL%1,                         Vivian Ribeiro%Alves%NULL%1,                         Tânia Maria de Resende%Amaral%NULL%1,                         Adriano Neves%Coelho%NULL%1,                         Júlia Maria%Saraiva Duarte%NULL%1,                         Augusto Viana%da Rocha%NULL%1,                         Luiz Gonzaga Paula%de Almeida%NULL%1,                         João Locke Ferreira%de Araújo%NULL%1,                         Hilton Soares%de Oliveira%NULL%1,                         Nova Jersey Cláudio%de Oliveira%NULL%1,                         Camila%Zolini%NULL%1,                         Jôsy Hubner%de Sousa%NULL%1,                         Elizângela Gonçalves%de Souza%NULL%1,                         Rafael Marques%de Souza%NULL%1,                         Luciana de Lima%Ferreira%NULL%1,                         Alexandra%Lehmkuhl Gerber%NULL%1,                         Ana Paula de Campos%Guimarães%NULL%1,                         Paulo Henrique Silva%Maia%NULL%1,                         Fernanda Martins%Marim%NULL%1,                         Lucyene%Miguita%NULL%1,                         Cristiane Campos%Monteiro%NULL%1,                         Tuffi Saliba%Neto%NULL%1,                         Fabrícia Soares Freire%Pugêdo%NULL%1,                         Daniel Costa%Queiroz%NULL%1,                         Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                         Luciana Cunha%Resende-Moreira%NULL%1,                         Franciele Martins%Santos%NULL%1,                         Erika Fernanda Carlos%Souza%NULL%1,                         Carolina Moreira%Voloch%NULL%1,                         Ana Tereza%Vasconcelos%NULL%1,                         Renato Santana%de Aguiar%NULL%1,                         Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                          Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                          Sirwan M. A.%Al‐Jaf%NULL%2,                          Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                          Diego%Menezes%NULL%1,                          Filipe Romero Rebello%Moreira%NULL%1,                          Octávio Alcântara%Torres%NULL%1,                          Paula Luize Camargos%Fonseca%NULL%1,                          Rennan Garcias%Moreira%NULL%1,                          Hugo José%Alves%NULL%1,                          Vivian Ribeiro%Alves%NULL%1,                          Tânia Maria de Resende%Amaral%NULL%1,                          Adriano Neves%Coelho%NULL%1,                          Júlia Maria%Saraiva Duarte%NULL%1,                          Augusto Viana%da Rocha%NULL%1,                          Luiz Gonzaga Paula%de Almeida%NULL%1,                          João Locke Ferreira%de Araújo%NULL%1,                          Hilton Soares%de Oliveira%NULL%1,                          Nova Jersey Cláudio%de Oliveira%NULL%1,                          Camila%Zolini%NULL%1,                          Jôsy Hubner%de Sousa%NULL%1,                          Elizângela Gonçalves%de Souza%NULL%1,                          Rafael Marques%de Souza%NULL%1,                          Luciana de Lima%Ferreira%NULL%1,                          Alexandra%Lehmkuhl Gerber%NULL%1,                          Ana Paula de Campos%Guimarães%NULL%1,                          Paulo Henrique Silva%Maia%NULL%1,                          Fernanda Martins%Marim%NULL%1,                          Lucyene%Miguita%NULL%1,                          Cristiane Campos%Monteiro%NULL%1,                          Tuffi Saliba%Neto%NULL%1,                          Fabrícia Soares Freire%Pugêdo%NULL%1,                          Daniel Costa%Queiroz%NULL%1,                          Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                          Luciana Cunha%Resende-Moreira%NULL%1,                          Franciele Martins%Santos%NULL%1,                          Erika Fernanda Carlos%Souza%NULL%1,                          Carolina Moreira%Voloch%NULL%1,                          Ana Tereza%Vasconcelos%NULL%1,                          Renato Santana%de Aguiar%NULL%1,                          Renan Pedra%de Souza%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -661,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -693,7 +705,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -725,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
